--- a/public/Laporan pemesanan 2023-05-01 - 2023-05-31.xlsx
+++ b/public/Laporan pemesanan 2023-05-01 - 2023-05-31.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>No.</t>
   </si>
@@ -44,22 +44,28 @@
     <t>Dibayar</t>
   </si>
   <si>
+    <t>TRX-20230513820</t>
+  </si>
+  <si>
+    <t>dide</t>
+  </si>
+  <si>
+    <t>2023-05-13</t>
+  </si>
+  <si>
+    <t>19:00 - 20:00</t>
+  </si>
+  <si>
+    <t>Rp. 35,000</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
     <t>TRX-20230513782</t>
   </si>
   <si>
-    <t>dide</t>
-  </si>
-  <si>
-    <t>2023-05-13</t>
-  </si>
-  <si>
     <t>18:00 - 19:00</t>
-  </si>
-  <si>
-    <t>Rp. 35,000</t>
-  </si>
-  <si>
-    <t>CASH</t>
   </si>
   <si>
     <t>TRX-20230509280</t>
@@ -423,7 +429,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,13 +503,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -523,28 +529,57 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
